--- a/backend/templates/menu.xlsx
+++ b/backend/templates/menu.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="4935"/>
@@ -152,6 +152,15 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -160,15 +169,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,33 +474,32 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="1" max="1" width="60.28515625" customWidth="1"/>
+    <col min="2" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
